--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wexr\Visual Studio\TestEksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B42B29-93C0-47E6-83BE-0FA84CB12E33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBF250-3392-4CDC-99DA-A2D231BABACB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3990" xr2:uid="{7CF61BCD-9CEE-4329-A839-897FE047BA76}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Database</t>
   </si>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6BD4C6-4763-467D-A32F-F189CBC0A061}">
-  <dimension ref="C2:J6"/>
+  <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,7 +424,7 @@
     <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -432,7 +432,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -455,6 +458,41 @@
         <v>7</v>
       </c>
       <c r="J6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
